--- a/Dados/Dados de Medicamentos/Taubaté/MED-taubate.xlsx
+++ b/Dados/Dados de Medicamentos/Taubaté/MED-taubate.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\API\Dados\Dados de Medicamentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\fatec\API\Dados\Dados de Medicamentos\Taubaté\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{44873CB4-670F-4D70-9BF9-2544A43C2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2020" sheetId="2" r:id="rId2"/>
     <sheet name="2021" sheetId="3" r:id="rId3"/>
     <sheet name="2022" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1465" uniqueCount="168">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1596" uniqueCount="207">
   <si>
     <t>Processo</t>
   </si>
@@ -531,12 +544,135 @@
   </si>
   <si>
     <t>AQUISICAO DE MEDICAMENTOS DEMANDAJUDICIAL</t>
+  </si>
+  <si>
+    <t>59174/2021</t>
+  </si>
+  <si>
+    <t>1169/2022</t>
+  </si>
+  <si>
+    <t>30028/2022</t>
+  </si>
+  <si>
+    <t>5626/2022</t>
+  </si>
+  <si>
+    <t>1603/2022</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MEDICAMENTOS PARA ATENDER DEMANDA JUDICIAL</t>
+  </si>
+  <si>
+    <t>2 - ART. 24, II, LEI 8666/93</t>
+  </si>
+  <si>
+    <t>Termo de Referência</t>
+  </si>
+  <si>
+    <t>Exibir Itens Empenho</t>
+  </si>
+  <si>
+    <t>31633/2022</t>
+  </si>
+  <si>
+    <t>5984/2022</t>
+  </si>
+  <si>
+    <t>1861/2022</t>
+  </si>
+  <si>
+    <t>5 - ART. 24, V, LEI 8666/93</t>
+  </si>
+  <si>
+    <t>37188/2022</t>
+  </si>
+  <si>
+    <t>6827/2022</t>
+  </si>
+  <si>
+    <t>2183/2022</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MEDICAMENTOS PARA ATENDER DEMANDA JUDICIAL
+PROCESSO 37.188/2022</t>
+  </si>
+  <si>
+    <t>51573/2022</t>
+  </si>
+  <si>
+    <t>Oncovit Distribuidora De Medicamentos Ltda. - 10.586.940/0001-68</t>
+  </si>
+  <si>
+    <t>9329/2022</t>
+  </si>
+  <si>
+    <t>3293/2022</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MEDICAMENTOS DE DEMANDA JUDICIAL
+PROCESSO 51.573/2022</t>
+  </si>
+  <si>
+    <t>Onco Prod. Dist. Produtos Hosp. Oncol. Ltda. - 04.307.650/0012-98</t>
+  </si>
+  <si>
+    <t>9357/2022</t>
+  </si>
+  <si>
+    <t>3295/2022</t>
+  </si>
+  <si>
+    <t>9358/2022</t>
+  </si>
+  <si>
+    <t>3294/2022</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Rocurónio ou Brometo de rocurônio (Nomes comerciais: Esmeron e Zemuron) é um relaxante muscular não-despolarizante de duração intermédia e rápido início de acção. Usado em cirurgias geral e procedimentos de emergência. Usado em conjunto com analgesico em casos de entubação</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>41429/2022</t>
+  </si>
+  <si>
+    <t>7748/2022</t>
+  </si>
+  <si>
+    <t>2539/2022</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE INSULINA DEGLUDECA PARA ATENDER DEMANDA JUDICIAL - PROCESSO  41.429/2022</t>
+  </si>
+  <si>
+    <t>43324/2021</t>
+  </si>
+  <si>
+    <t>Medlevensohn Comercio E Representacoes De Pr - 05.343.029/0001-90</t>
+  </si>
+  <si>
+    <t>9031/2022</t>
+  </si>
+  <si>
+    <t>3208/2022</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MATERIAL DE INSULINA
+PROCESSO 51.736/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,7 +1147,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1055,8 +1191,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1115,8 +1252,36 @@
     <xf numFmtId="4" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="44" fontId="19" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1147,10 +1312,11 @@
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hiperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="43" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1186,7 +1352,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1200,6 +1366,1124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Total de gastos com medicamentos </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>em Taubate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gastos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5714-4EBD-9879-16388856AEE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5714-4EBD-9879-16388856AEE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5714-4EBD-9879-16388856AEE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="2.3148148148148105E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5714-4EBD-9879-16388856AEE2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23630.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95304.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234855.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10726.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5714-4EBD-9879-16388856AEE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="16275375"/>
+        <c:axId val="16268175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="16275375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16268175"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16268175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Gasto total</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0_);_(&quot;R$&quot;* \(#,##0\);_(&quot;R$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16275375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6370058-B6EA-57B6-61D4-7B902A84BC71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,29 +2748,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:AB1"/>
+    <sheetView topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="82.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="82.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1560,11 +2845,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I2" s="1"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +2881,7 @@
       <c r="N3" s="2">
         <v>9809</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="23">
         <v>9809</v>
       </c>
       <c r="P3">
@@ -1605,7 +2891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +2934,7 @@
       <c r="N4" s="19">
         <v>496.77</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="24">
         <v>496.77</v>
       </c>
       <c r="P4" s="15">
@@ -1685,7 +2971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +3014,7 @@
       <c r="N5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="24">
         <v>0</v>
       </c>
       <c r="P5" s="20">
@@ -1765,7 +3051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +3094,7 @@
       <c r="N6" s="17">
         <v>0</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="25">
         <v>0</v>
       </c>
       <c r="P6" s="21">
@@ -1845,7 +3131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +3174,7 @@
       <c r="N7" s="19">
         <v>0</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="24">
         <v>0</v>
       </c>
       <c r="P7" s="15">
@@ -1925,7 +3211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +3254,7 @@
       <c r="N8" s="17">
         <v>0</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="25">
         <v>0</v>
       </c>
       <c r="P8" s="9">
@@ -2005,20 +3291,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I9" s="1"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I11" s="1"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2061,7 +3349,7 @@
       <c r="N12" s="8">
         <v>1302</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="25">
         <v>1302</v>
       </c>
       <c r="P12" s="9">
@@ -2098,7 +3386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +3429,7 @@
       <c r="N13" s="14">
         <v>1777.72</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="24">
         <v>1777.72</v>
       </c>
       <c r="P13" s="15">
@@ -2178,7 +3466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -2221,7 +3509,7 @@
       <c r="N14" s="17">
         <v>180.39</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="25">
         <v>180.39</v>
       </c>
       <c r="P14" s="9">
@@ -2258,7 +3546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +3589,7 @@
       <c r="N15" s="14">
         <v>4557</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="24">
         <v>4557</v>
       </c>
       <c r="P15" s="15">
@@ -2338,7 +3626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +3669,7 @@
       <c r="N16" s="19">
         <v>801.6</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="24">
         <v>801.6</v>
       </c>
       <c r="P16" s="15">
@@ -2418,7 +3706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +3749,7 @@
       <c r="N17" s="19">
         <v>489.07</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="24">
         <v>489.07</v>
       </c>
       <c r="P17" s="15">
@@ -2498,7 +3786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +3829,7 @@
       <c r="N18" s="19">
         <v>843.18</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="24">
         <v>843.18</v>
       </c>
       <c r="P18" s="15">
@@ -2578,7 +3866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +3909,7 @@
       <c r="N19" s="17">
         <v>233.64</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="25">
         <v>233.64</v>
       </c>
       <c r="P19" s="9">
@@ -2658,7 +3946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2701,7 +3989,7 @@
       <c r="N20" s="17">
         <v>437.4</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="25">
         <v>437.4</v>
       </c>
       <c r="P20" s="9">
@@ -2738,7 +4026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2781,7 +4069,7 @@
       <c r="N21" s="8">
         <v>2565.1799999999998</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="25">
         <v>2565.1799999999998</v>
       </c>
       <c r="P21" s="9">
@@ -2818,7 +4106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +4149,7 @@
       <c r="N22" s="19">
         <v>137.19999999999999</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="24">
         <v>137.19999999999999</v>
       </c>
       <c r="P22" s="15">
@@ -2898,290 +4186,294 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O23" s="23">
+        <f>SUM(O3:O22)</f>
+        <v>23630.149999999998</v>
+      </c>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I24" s="1"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I25" s="1"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I26" s="1"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I28" s="1"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I29" s="1"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35" s="1"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" s="1"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" s="1"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" s="1"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I42" s="1"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I43" s="1"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I47" s="1"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I48" s="1"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I49" s="1"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I50" s="1"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I52" s="1"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I54" s="1"/>
       <c r="M54" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,15707"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,,"/>
-    <hyperlink ref="F12" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,,"/>
-    <hyperlink ref="G12" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15707,,R,N,,"/>
-    <hyperlink ref="H12" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N12" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:346641,,R,N,,"/>
-    <hyperlink ref="O12" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:346641,,R,N"/>
-    <hyperlink ref="R12" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S12" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T12" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z12" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,13544"/>
-    <hyperlink ref="E13" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,,"/>
-    <hyperlink ref="F13" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,,"/>
-    <hyperlink ref="G13" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13544,,R,N,,"/>
-    <hyperlink ref="H13" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N13" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:348505,,R,N,,"/>
-    <hyperlink ref="O13" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:348505,,R,N"/>
-    <hyperlink ref="R13" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S13" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T13" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z13" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C14" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,13562"/>
-    <hyperlink ref="E14" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,,"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,,"/>
-    <hyperlink ref="G14" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13562,,R,N,,"/>
-    <hyperlink ref="H14" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N14" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:348507,,R,N,,"/>
-    <hyperlink ref="O14" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:348507,,R,N"/>
-    <hyperlink ref="R14" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S14" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T14" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z14" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C15" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,1371"/>
-    <hyperlink ref="E15" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F15" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G15" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1371,,O,N,,"/>
-    <hyperlink ref="H15" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N15" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241281,,O,N,,"/>
-    <hyperlink ref="O15" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241281,,O,N"/>
-    <hyperlink ref="R15" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S15" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T15" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z15" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C16" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,2861"/>
-    <hyperlink ref="E16" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F16" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G16" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2861,,O,N,,"/>
-    <hyperlink ref="H16" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N16" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241913,,O,N,,"/>
-    <hyperlink ref="O16" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241913,,O,N"/>
-    <hyperlink ref="R16" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S16" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T16" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z16" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C17" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,2863"/>
-    <hyperlink ref="E17" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F17" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G17" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2863,,O,N,,"/>
-    <hyperlink ref="H17" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N17" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241917,,O,N,,"/>
-    <hyperlink ref="O17" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241917,,O,N"/>
-    <hyperlink ref="R17" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S17" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T17" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z17" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C18" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,3617"/>
-    <hyperlink ref="E18" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F18" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G18" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3617,,O,N,,"/>
-    <hyperlink ref="H18" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N18" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:249147,,O,N,,"/>
-    <hyperlink ref="O18" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:249147,,O,N"/>
-    <hyperlink ref="R18" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S18" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T18" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z18" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C19" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,5319"/>
-    <hyperlink ref="E19" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F19" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G19" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,5319,,O,N,,"/>
-    <hyperlink ref="H19" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N19" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254711,,O,N,,"/>
-    <hyperlink ref="O19" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254711,,O,N"/>
-    <hyperlink ref="R19" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S19" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T19" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z19" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C20" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,5322"/>
-    <hyperlink ref="E20" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F20" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G20" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,5322,,O,N,,"/>
-    <hyperlink ref="H20" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N20" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254717,,O,N,,"/>
-    <hyperlink ref="O20" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254717,,O,N"/>
-    <hyperlink ref="R20" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S20" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T20" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z20" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C21" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,6068"/>
-    <hyperlink ref="E21" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F21" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G21" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6068,,O,N,,"/>
-    <hyperlink ref="H21" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N21" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:252737,,O,N,,"/>
-    <hyperlink ref="O21" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:252737,,O,N"/>
-    <hyperlink ref="R21" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S21" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T21" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z21" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C22" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,6950"/>
-    <hyperlink ref="E22" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F22" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G22" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6950,,O,N,,"/>
-    <hyperlink ref="H22" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N22" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254237,,O,N,,"/>
-    <hyperlink ref="O22" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254237,,O,N"/>
-    <hyperlink ref="R22" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S22" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T22" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z22" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C4" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,12321"/>
-    <hyperlink ref="E4" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F4" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G4" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12321,,O,N,,"/>
-    <hyperlink ref="H4" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N4" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:267237,,O,N,,"/>
-    <hyperlink ref="O4" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:267237,,O,N"/>
-    <hyperlink ref="R4" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S4" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T4" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z4" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C5" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15130"/>
-    <hyperlink ref="E5" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F5" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G5" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15130,,O,N,,"/>
-    <hyperlink ref="H5" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N5" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270439,,O,N,,"/>
-    <hyperlink ref="O5" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270439,,O,N"/>
-    <hyperlink ref="R5" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S5" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T5" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z5" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C6" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15131"/>
-    <hyperlink ref="E6" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F6" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G6" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15131,,O,N,,"/>
-    <hyperlink ref="H6" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N6" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270441,,O,N,,"/>
-    <hyperlink ref="O6" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270441,,O,N"/>
-    <hyperlink ref="R6" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S6" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T6" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z6" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C7" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15137"/>
-    <hyperlink ref="E7" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F7" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G7" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15137,,O,N,,"/>
-    <hyperlink ref="H7" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N7" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270793,,O,N,,"/>
-    <hyperlink ref="O7" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270793,,O,N"/>
-    <hyperlink ref="R7" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S7" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T7" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z7" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C8" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15138"/>
-    <hyperlink ref="E8" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F8" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G8" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15138,,O,N,,"/>
-    <hyperlink ref="H8" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N8" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270795,,O,N,,"/>
-    <hyperlink ref="O8" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270795,,O,N"/>
-    <hyperlink ref="R8" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S8" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T8" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z8" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
+    <hyperlink ref="C12" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,15707" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,," xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F12" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,," xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15707,,R,N,," xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H12" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N12" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:346641,,R,N,," xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O12" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:346641,,R,N" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="R12" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S12" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T12" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Z12" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,13544" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,," xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,," xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13544,,R,N,," xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H13" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N13" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:348505,,R,N,," xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O13" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:348505,,R,N" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R13" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="S13" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="T13" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Z13" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C14" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2018,13562" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E14" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,R,N,," xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,R,N,," xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G14" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13562,,R,N,," xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H14" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N14" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:348507,,R,N,," xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O14" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:348507,,R,N" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="R14" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="S14" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T14" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Z14" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C15" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,1371" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E15" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F15" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G15" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1371,,O,N,," xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H15" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N15" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241281,,O,N,," xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O15" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241281,,O,N" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="R15" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="S15" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="T15" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Z15" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C16" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,2861" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E16" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F16" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G16" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2861,,O,N,," xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H16" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N16" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241913,,O,N,," xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O16" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241913,,O,N" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="R16" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="S16" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="T16" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Z16" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C17" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,2863" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E17" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F17" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G17" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2863,,O,N,," xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H17" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N17" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:241917,,O,N,," xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="O17" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:241917,,O,N" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="R17" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="S17" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T17" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Z17" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C18" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,3617" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E18" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F18" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G18" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3617,,O,N,," xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H18" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N18" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:249147,,O,N,," xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O18" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:249147,,O,N" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="R18" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="S18" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="T18" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="Z18" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C19" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,5319" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E19" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F19" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G19" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,5319,,O,N,," xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H19" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N19" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254711,,O,N,," xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="O19" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254711,,O,N" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="R19" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="S19" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="T19" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="Z19" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C20" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,5322" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E20" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F20" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G20" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,5322,,O,N,," xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H20" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N20" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254717,,O,N,," xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="O20" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254717,,O,N" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="R20" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="S20" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="T20" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="Z20" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C21" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,6068" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E21" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F21" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G21" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6068,,O,N,," xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H21" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="N21" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:252737,,O,N,," xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="O21" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:252737,,O,N" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="R21" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="S21" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="T21" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="Z21" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C22" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,6950" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E22" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F22" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G22" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6950,,O,N,," xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H22" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="N22" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:254237,,O,N,," xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="O22" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:254237,,O,N" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="R22" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="S22" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="T22" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="Z22" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C4" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,12321" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E4" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F4" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G4" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12321,,O,N,," xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H4" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="N4" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:267237,,O,N,," xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="O4" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:267237,,O,N" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="R4" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="S4" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="T4" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="Z4" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C5" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15130" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E5" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F5" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G5" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15130,,O,N,," xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H5" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="N5" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270439,,O,N,," xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="O5" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270439,,O,N" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="R5" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="S5" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="T5" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="Z5" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C6" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15131" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E6" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F6" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G6" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15131,,O,N,," xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H6" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="N6" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270441,,O,N,," xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="O6" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270441,,O,N" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="R6" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="S6" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="T6" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="Z6" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C7" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E7" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F7" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G7" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15137,,O,N,," xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="H7" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="N7" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270793,,O,N,," xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="O7" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270793,,O,N" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="R7" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="S7" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="T7" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="Z7" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C8" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2019,15138" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E8" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F8" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G8" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,15138,,O,N,," xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H8" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="N8" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:270795,,O,N,," xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="O8" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:270795,,O,N" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="R8" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="S8" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="T8" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="Z8" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId177"/>
@@ -3189,16 +4481,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +4571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -3315,7 +4614,7 @@
       <c r="N2" s="19">
         <v>700</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="24">
         <v>700</v>
       </c>
       <c r="P2" s="15">
@@ -3352,7 +4651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -3395,7 +4694,7 @@
       <c r="N3" s="17">
         <v>0</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="25">
         <v>0</v>
       </c>
       <c r="P3" s="21">
@@ -3432,7 +4731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -3475,7 +4774,7 @@
       <c r="N4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="24">
         <v>0</v>
       </c>
       <c r="P4" s="20">
@@ -3512,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -3555,7 +4854,7 @@
       <c r="N5" s="8">
         <v>3573.3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="25">
         <v>3573.3</v>
       </c>
       <c r="P5" s="9">
@@ -3592,7 +4891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -3635,7 +4934,7 @@
       <c r="N6" s="14">
         <v>2090</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="24">
         <v>2090</v>
       </c>
       <c r="P6" s="15">
@@ -3672,7 +4971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -3715,7 +5014,7 @@
       <c r="N7" s="19">
         <v>41.4</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="24">
         <v>41.4</v>
       </c>
       <c r="P7" s="15">
@@ -3752,7 +5051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3795,7 +5094,7 @@
       <c r="N8" s="17">
         <v>358.2</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="25">
         <v>358.2</v>
       </c>
       <c r="P8" s="9">
@@ -3832,7 +5131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +5174,7 @@
       <c r="N9" s="8">
         <v>7990</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="25">
         <v>7990</v>
       </c>
       <c r="P9" s="9">
@@ -3912,7 +5211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -3955,7 +5254,7 @@
       <c r="N10" s="14">
         <v>1612.8</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="24">
         <v>1612.8</v>
       </c>
       <c r="P10" s="15">
@@ -3992,7 +5291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -4035,7 +5334,7 @@
       <c r="N11" s="8">
         <v>3466.8</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="25">
         <v>3466.8</v>
       </c>
       <c r="P11" s="9">
@@ -4072,7 +5371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -4115,7 +5414,7 @@
       <c r="N12" s="14">
         <v>1764</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="24">
         <v>1764</v>
       </c>
       <c r="P12" s="15">
@@ -4152,7 +5451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -4195,7 +5494,7 @@
       <c r="N13" s="14">
         <v>6770.96</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="24">
         <v>6770.96</v>
       </c>
       <c r="P13" s="15">
@@ -4232,7 +5531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -4275,7 +5574,7 @@
       <c r="N14" s="8">
         <v>1399</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="25">
         <v>1399</v>
       </c>
       <c r="P14" s="9">
@@ -4312,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -4355,7 +5654,7 @@
       <c r="N15" s="19">
         <v>334.5</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="24">
         <v>334.5</v>
       </c>
       <c r="P15" s="15">
@@ -4392,7 +5691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -4435,7 +5734,7 @@
       <c r="N16" s="8">
         <v>4260</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="25">
         <v>4260</v>
       </c>
       <c r="P16" s="9">
@@ -4472,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -4515,7 +5814,7 @@
       <c r="N17" s="8">
         <v>15075</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="25">
         <v>15075</v>
       </c>
       <c r="P17" s="9">
@@ -4552,7 +5851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -4595,7 +5894,7 @@
       <c r="N18" s="14">
         <v>2856</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="24">
         <v>2856</v>
       </c>
       <c r="P18" s="15">
@@ -4632,7 +5931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -4675,7 +5974,7 @@
       <c r="N19" s="14">
         <v>1203.6300000000001</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="24">
         <v>1203.6300000000001</v>
       </c>
       <c r="P19" s="15">
@@ -4712,7 +6011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -4755,7 +6054,7 @@
       <c r="N20" s="8">
         <v>5088.93</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="25">
         <v>5088.93</v>
       </c>
       <c r="P20" s="9">
@@ -4792,7 +6091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -4835,7 +6134,7 @@
       <c r="N21" s="14">
         <v>3971.7</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="24">
         <v>3971.7</v>
       </c>
       <c r="P21" s="15">
@@ -4872,7 +6171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -4915,7 +6214,7 @@
       <c r="N22" s="8">
         <v>2020.52</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="25">
         <v>1515.39</v>
       </c>
       <c r="P22" s="9">
@@ -4952,7 +6251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4995,7 +6294,7 @@
       <c r="N23" s="14">
         <v>2083</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="24">
         <v>2083</v>
       </c>
       <c r="P23" s="15">
@@ -5032,7 +6331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -5075,7 +6374,7 @@
       <c r="N24" s="8">
         <v>1009.68</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="25">
         <v>1009.68</v>
       </c>
       <c r="P24" s="9">
@@ -5112,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -5155,7 +6454,7 @@
       <c r="N25" s="17">
         <v>0</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="25">
         <v>0</v>
       </c>
       <c r="P25" s="9">
@@ -5192,7 +6491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -5235,7 +6534,7 @@
       <c r="N26" s="19">
         <v>0</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="24">
         <v>0</v>
       </c>
       <c r="P26" s="15">
@@ -5272,7 +6571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>118</v>
       </c>
@@ -5315,7 +6614,7 @@
       <c r="N27" s="19">
         <v>0</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="26">
         <v>28140</v>
       </c>
       <c r="P27" s="10" t="s">
@@ -5350,7 +6649,7 @@
       </c>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -5393,7 +6692,7 @@
       <c r="N28" s="17">
         <v>0</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="25">
         <v>0</v>
       </c>
       <c r="P28" s="9">
@@ -5430,7 +6729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
@@ -5473,7 +6772,7 @@
       <c r="N29" s="19">
         <v>0</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="24">
         <v>0</v>
       </c>
       <c r="P29" s="15">
@@ -5510,7 +6809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -5553,7 +6852,7 @@
       <c r="N30" s="17">
         <v>0</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="25">
         <v>0</v>
       </c>
       <c r="P30" s="9">
@@ -5590,7 +6889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
@@ -5633,7 +6932,7 @@
       <c r="N31" s="19">
         <v>0</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="24">
         <v>0</v>
       </c>
       <c r="P31" s="15">
@@ -5670,7 +6969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -5713,7 +7012,7 @@
       <c r="N32" s="17">
         <v>0</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="25">
         <v>0</v>
       </c>
       <c r="P32" s="9">
@@ -5750,7 +7049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
@@ -5793,7 +7092,7 @@
       <c r="N33" s="19">
         <v>0</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="24">
         <v>0</v>
       </c>
       <c r="P33" s="15">
@@ -5830,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>24</v>
       </c>
@@ -5873,7 +7172,7 @@
       <c r="N34" s="19">
         <v>0</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="24">
         <v>0</v>
       </c>
       <c r="P34" s="15">
@@ -5910,387 +7209,403 @@
         <v>26</v>
       </c>
     </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O35" s="23">
+        <f>SUM(O2:O34)</f>
+        <v>95304.289999999979</v>
+      </c>
+      <c r="P35" s="28">
+        <v>95304.29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1255"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G2" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1255,,O,N,,"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N2" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268311,,O,N,,"/>
-    <hyperlink ref="O2" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268311,,O,N"/>
-    <hyperlink ref="R2" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S2" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T2" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z2" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C3" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1272"/>
-    <hyperlink ref="E3" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F3" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G3" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1272,,O,N,,"/>
-    <hyperlink ref="H3" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N3" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268981,,O,N,,"/>
-    <hyperlink ref="O3" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268981,,O,N"/>
-    <hyperlink ref="R3" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S3" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T3" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z3" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C4" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1274"/>
-    <hyperlink ref="E4" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F4" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G4" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1274,,O,N,,"/>
-    <hyperlink ref="H4" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N4" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268985,,O,N,,"/>
-    <hyperlink ref="O4" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268985,,O,N"/>
-    <hyperlink ref="R4" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S4" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T4" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z4" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C5" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1276"/>
-    <hyperlink ref="E5" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F5" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G5" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1276,,O,N,,"/>
-    <hyperlink ref="H5" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N5" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268989,,O,N,,"/>
-    <hyperlink ref="O5" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268989,,O,N"/>
-    <hyperlink ref="R5" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S5" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T5" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z5" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C6" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1277"/>
-    <hyperlink ref="E6" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F6" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G6" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1277,,O,N,,"/>
-    <hyperlink ref="H6" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N6" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:269379,,O,N,,"/>
-    <hyperlink ref="O6" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:269379,,O,N"/>
-    <hyperlink ref="R6" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S6" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T6" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z6" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C7" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4472"/>
-    <hyperlink ref="E7" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F7" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G7" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4472,,O,N,,"/>
-    <hyperlink ref="H7" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N7" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:316423,,O,N,,"/>
-    <hyperlink ref="O7" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:316423,,O,N"/>
-    <hyperlink ref="R7" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S7" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T7" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z7" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C8" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4511"/>
-    <hyperlink ref="E8" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F8" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G8" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4511,,O,N,,"/>
-    <hyperlink ref="H8" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N8" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:317855,,O,N,,"/>
-    <hyperlink ref="O8" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:317855,,O,N"/>
-    <hyperlink ref="R8" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S8" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T8" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z8" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C9" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4874"/>
-    <hyperlink ref="E9" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F9" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G9" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4874,,O,N,,"/>
-    <hyperlink ref="H9" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N9" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:319985,,O,N,,"/>
-    <hyperlink ref="O9" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:319985,,O,N"/>
-    <hyperlink ref="R9" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S9" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T9" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z9" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C10" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4880"/>
-    <hyperlink ref="E10" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F10" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G10" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4880,,O,N,,"/>
-    <hyperlink ref="H10" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N10" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308625,,O,N,,"/>
-    <hyperlink ref="O10" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308625,,O,N"/>
-    <hyperlink ref="R10" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S10" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T10" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z10" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C11" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4881"/>
-    <hyperlink ref="E11" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F11" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G11" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4881,,O,N,,"/>
-    <hyperlink ref="H11" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N11" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308627,,O,N,,"/>
-    <hyperlink ref="O11" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308627,,O,N"/>
-    <hyperlink ref="R11" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S11" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T11" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z11" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C12" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4882"/>
-    <hyperlink ref="E12" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F12" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G12" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4882,,O,N,,"/>
-    <hyperlink ref="H12" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N12" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308629,,O,N,,"/>
-    <hyperlink ref="O12" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308629,,O,N"/>
-    <hyperlink ref="R12" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S12" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T12" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z12" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C13" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6444"/>
-    <hyperlink ref="E13" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F13" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G13" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6444,,O,N,,"/>
-    <hyperlink ref="H13" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N13" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:310345,,O,N,,"/>
-    <hyperlink ref="O13" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:310345,,O,N"/>
-    <hyperlink ref="R13" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S13" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T13" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z13" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C14" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6855"/>
-    <hyperlink ref="E14" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F14" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G14" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6855,,O,N,,"/>
-    <hyperlink ref="H14" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N14" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313369,,O,N,,"/>
-    <hyperlink ref="O14" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313369,,O,N"/>
-    <hyperlink ref="R14" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S14" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T14" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z14" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C15" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6856"/>
-    <hyperlink ref="E15" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F15" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G15" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6856,,O,N,,"/>
-    <hyperlink ref="H15" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N15" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313371,,O,N,,"/>
-    <hyperlink ref="O15" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313371,,O,N"/>
-    <hyperlink ref="R15" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S15" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T15" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z15" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C16" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6857"/>
-    <hyperlink ref="E16" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F16" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G16" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6857,,O,N,,"/>
-    <hyperlink ref="H16" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N16" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313373,,O,N,,"/>
-    <hyperlink ref="O16" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313373,,O,N"/>
-    <hyperlink ref="R16" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S16" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T16" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z16" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C17" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,7873"/>
-    <hyperlink ref="E17" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F17" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G17" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,7873,,O,N,,"/>
-    <hyperlink ref="H17" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N17" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294785,,O,N,,"/>
-    <hyperlink ref="O17" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294785,,O,N"/>
-    <hyperlink ref="R17" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S17" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T17" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z17" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C18" r:id="rId177" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,7874"/>
-    <hyperlink ref="E18" r:id="rId178" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F18" r:id="rId179" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G18" r:id="rId180" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,7874,,O,N,,"/>
-    <hyperlink ref="H18" r:id="rId181" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N18" r:id="rId182" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294787,,O,N,,"/>
-    <hyperlink ref="O18" r:id="rId183" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294787,,O,N"/>
-    <hyperlink ref="R18" r:id="rId184" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S18" r:id="rId185" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T18" r:id="rId186" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z18" r:id="rId187" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C19" r:id="rId188" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,8811"/>
-    <hyperlink ref="E19" r:id="rId189" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F19" r:id="rId190" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G19" r:id="rId191" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,8811,,O,N,,"/>
-    <hyperlink ref="H19" r:id="rId192" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N19" r:id="rId193" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:292721,,O,N,,"/>
-    <hyperlink ref="O19" r:id="rId194" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:292721,,O,N"/>
-    <hyperlink ref="R19" r:id="rId195" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S19" r:id="rId196" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T19" r:id="rId197" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z19" r:id="rId198" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C20" r:id="rId199" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,9618"/>
-    <hyperlink ref="E20" r:id="rId200" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F20" r:id="rId201" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G20" r:id="rId202" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,9618,,O,N,,"/>
-    <hyperlink ref="H20" r:id="rId203" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N20" r:id="rId204" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:292695,,O,N,,"/>
-    <hyperlink ref="O20" r:id="rId205" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:292695,,O,N"/>
-    <hyperlink ref="R20" r:id="rId206" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S20" r:id="rId207" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T20" r:id="rId208" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z20" r:id="rId209" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C21" r:id="rId210" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,10791"/>
-    <hyperlink ref="E21" r:id="rId211" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F21" r:id="rId212" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G21" r:id="rId213" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10791,,O,N,,"/>
-    <hyperlink ref="H21" r:id="rId214" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N21" r:id="rId215" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:295155,,O,N,,"/>
-    <hyperlink ref="O21" r:id="rId216" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:295155,,O,N"/>
-    <hyperlink ref="R21" r:id="rId217" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S21" r:id="rId218" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T21" r:id="rId219" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z21" r:id="rId220" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C22" r:id="rId221" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,10998"/>
-    <hyperlink ref="E22" r:id="rId222" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F22" r:id="rId223" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G22" r:id="rId224" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10998,,O,N,,"/>
-    <hyperlink ref="H22" r:id="rId225" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N22" r:id="rId226" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:285509,,O,N,,"/>
-    <hyperlink ref="O22" r:id="rId227" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:285509,,O,N"/>
-    <hyperlink ref="R22" r:id="rId228" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S22" r:id="rId229" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T22" r:id="rId230" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z22" r:id="rId231" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C23" r:id="rId232" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11011"/>
-    <hyperlink ref="E23" r:id="rId233" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F23" r:id="rId234" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G23" r:id="rId235" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11011,,O,N,,"/>
-    <hyperlink ref="H23" r:id="rId236" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N23" r:id="rId237" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:287043,,O,N,,"/>
-    <hyperlink ref="O23" r:id="rId238" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:287043,,O,N"/>
-    <hyperlink ref="R23" r:id="rId239" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S23" r:id="rId240" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T23" r:id="rId241" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z23" r:id="rId242" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C24" r:id="rId243" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11429"/>
-    <hyperlink ref="E24" r:id="rId244" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F24" r:id="rId245" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G24" r:id="rId246" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11429,,O,N,,"/>
-    <hyperlink ref="H24" r:id="rId247" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N24" r:id="rId248" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:286947,,O,N,,"/>
-    <hyperlink ref="O24" r:id="rId249" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:286947,,O,N"/>
-    <hyperlink ref="R24" r:id="rId250" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S24" r:id="rId251" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T24" r:id="rId252" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z24" r:id="rId253" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C25" r:id="rId254" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11981"/>
-    <hyperlink ref="E25" r:id="rId255" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F25" r:id="rId256" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G25" r:id="rId257" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11981,,O,N,,"/>
-    <hyperlink ref="H25" r:id="rId258" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N25" r:id="rId259" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294537,,O,N,,"/>
-    <hyperlink ref="O25" r:id="rId260" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294537,,O,N"/>
-    <hyperlink ref="R25" r:id="rId261" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S25" r:id="rId262" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T25" r:id="rId263" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z25" r:id="rId264" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C26" r:id="rId265" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11982"/>
-    <hyperlink ref="E26" r:id="rId266" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F26" r:id="rId267" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G26" r:id="rId268" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11982,,O,N,,"/>
-    <hyperlink ref="H26" r:id="rId269" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N26" r:id="rId270" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:295269,,O,N,,"/>
-    <hyperlink ref="O26" r:id="rId271" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:295269,,O,N"/>
-    <hyperlink ref="R26" r:id="rId272" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S26" r:id="rId273" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T26" r:id="rId274" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z26" r:id="rId275" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="B27" r:id="rId276" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,13578"/>
-    <hyperlink ref="D27" r:id="rId277" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="E27" r:id="rId278" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="F27" r:id="rId279" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13578,,O,N,,"/>
-    <hyperlink ref="G27" r:id="rId280" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="M27" r:id="rId281" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278503,,O,N,,"/>
-    <hyperlink ref="N27" r:id="rId282" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278503,,O,N"/>
-    <hyperlink ref="Q27" r:id="rId283" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="R27" r:id="rId284" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="S27" r:id="rId285" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Y27" r:id="rId286" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C28" r:id="rId287" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14126"/>
-    <hyperlink ref="E28" r:id="rId288" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F28" r:id="rId289" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G28" r:id="rId290" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14126,,O,N,,"/>
-    <hyperlink ref="H28" r:id="rId291" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N28" r:id="rId292" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280027,,O,N,,"/>
-    <hyperlink ref="O28" r:id="rId293" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280027,,O,N"/>
-    <hyperlink ref="R28" r:id="rId294" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S28" r:id="rId295" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T28" r:id="rId296" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z28" r:id="rId297" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C29" r:id="rId298" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14170"/>
-    <hyperlink ref="E29" r:id="rId299" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F29" r:id="rId300" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G29" r:id="rId301" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14170,,O,N,,"/>
-    <hyperlink ref="H29" r:id="rId302" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N29" r:id="rId303" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294705,,O,N,,"/>
-    <hyperlink ref="O29" r:id="rId304" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294705,,O,N"/>
-    <hyperlink ref="R29" r:id="rId305" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S29" r:id="rId306" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T29" r:id="rId307" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z29" r:id="rId308" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C30" r:id="rId309" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14366"/>
-    <hyperlink ref="E30" r:id="rId310" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F30" r:id="rId311" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G30" r:id="rId312" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14366,,O,N,,"/>
-    <hyperlink ref="H30" r:id="rId313" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N30" r:id="rId314" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:279283,,O,N,,"/>
-    <hyperlink ref="O30" r:id="rId315" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:279283,,O,N"/>
-    <hyperlink ref="R30" r:id="rId316" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S30" r:id="rId317" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T30" r:id="rId318" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z30" r:id="rId319" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C31" r:id="rId320" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14367"/>
-    <hyperlink ref="E31" r:id="rId321" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F31" r:id="rId322" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G31" r:id="rId323" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14367,,O,N,,"/>
-    <hyperlink ref="H31" r:id="rId324" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N31" r:id="rId325" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280001,,O,N,,"/>
-    <hyperlink ref="O31" r:id="rId326" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280001,,O,N"/>
-    <hyperlink ref="R31" r:id="rId327" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S31" r:id="rId328" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T31" r:id="rId329" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z31" r:id="rId330" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C32" r:id="rId331" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14368"/>
-    <hyperlink ref="E32" r:id="rId332" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F32" r:id="rId333" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G32" r:id="rId334" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14368,,O,N,,"/>
-    <hyperlink ref="H32" r:id="rId335" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N32" r:id="rId336" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280003,,O,N,,"/>
-    <hyperlink ref="O32" r:id="rId337" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280003,,O,N"/>
-    <hyperlink ref="R32" r:id="rId338" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S32" r:id="rId339" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T32" r:id="rId340" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z32" r:id="rId341" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C33" r:id="rId342" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14452"/>
-    <hyperlink ref="E33" r:id="rId343" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F33" r:id="rId344" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G33" r:id="rId345" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14452,,O,N,,"/>
-    <hyperlink ref="H33" r:id="rId346" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N33" r:id="rId347" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:277841,,O,N,,"/>
-    <hyperlink ref="O33" r:id="rId348" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:277841,,O,N"/>
-    <hyperlink ref="R33" r:id="rId349" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S33" r:id="rId350" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T33" r:id="rId351" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z33" r:id="rId352" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C34" r:id="rId353" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14600"/>
-    <hyperlink ref="E34" r:id="rId354" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F34" r:id="rId355" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G34" r:id="rId356" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14600,,O,N,,"/>
-    <hyperlink ref="H34" r:id="rId357" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N34" r:id="rId358" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:277003,,O,N,,"/>
-    <hyperlink ref="O34" r:id="rId359" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:277003,,O,N"/>
-    <hyperlink ref="R34" r:id="rId360" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S34" r:id="rId361" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T34" r:id="rId362" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z34" r:id="rId363" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1255" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1255,,O,N,," xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="N2" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268311,,O,N,," xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="O2" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268311,,O,N" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="R2" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="S2" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="T2" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Z2" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C3" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1272" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E3" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G3" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1272,,O,N,," xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H3" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="N3" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268981,,O,N,," xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="O3" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268981,,O,N" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="R3" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="S3" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="T3" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="Z3" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C4" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1274" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E4" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F4" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G4" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1274,,O,N,," xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H4" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="N4" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268985,,O,N,," xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="O4" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268985,,O,N" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="R4" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="S4" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="T4" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="Z4" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C5" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1276" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E5" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F5" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G5" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1276,,O,N,," xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="H5" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="N5" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:268989,,O,N,," xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="O5" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:268989,,O,N" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="R5" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="S5" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="T5" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="Z5" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="C6" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,1277" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E6" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="F6" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="G6" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1277,,O,N,," xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="H6" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="N6" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:269379,,O,N,," xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="O6" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:269379,,O,N" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="R6" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="S6" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="T6" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="Z6" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C7" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4472" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E7" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="F7" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="G7" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4472,,O,N,," xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="H7" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="N7" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:316423,,O,N,," xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="O7" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:316423,,O,N" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="R7" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="S7" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="T7" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="Z7" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="C8" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4511" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="E8" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="F8" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="G8" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4511,,O,N,," xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="H8" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="N8" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:317855,,O,N,," xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="O8" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:317855,,O,N" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="R8" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="S8" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="T8" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="Z8" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="C9" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4874" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="E9" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="F9" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="G9" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4874,,O,N,," xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="H9" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="N9" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:319985,,O,N,," xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="O9" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:319985,,O,N" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="R9" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="S9" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="T9" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="Z9" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="C10" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4880" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="E10" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="F10" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="G10" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4880,,O,N,," xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="H10" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="N10" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308625,,O,N,," xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="O10" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308625,,O,N" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="R10" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="S10" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="T10" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="Z10" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="C11" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4881" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="E11" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="F11" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="G11" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4881,,O,N,," xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="H11" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="N11" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308627,,O,N,," xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="O11" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308627,,O,N" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="R11" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="S11" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="T11" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="Z11" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="C12" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,4882" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="E12" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="F12" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="G12" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4882,,O,N,," xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="H12" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="N12" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:308629,,O,N,," xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="O12" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:308629,,O,N" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="R12" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="S12" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="T12" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="Z12" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="C13" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6444" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="E13" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="F13" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="G13" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6444,,O,N,," xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="H13" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="N13" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:310345,,O,N,," xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="O13" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:310345,,O,N" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="R13" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="S13" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="T13" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="Z13" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="C14" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6855" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="E14" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="F14" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="G14" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6855,,O,N,," xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="H14" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="N14" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313369,,O,N,," xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="O14" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313369,,O,N" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="R14" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="S14" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="T14" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="Z14" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="C15" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6856" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="E15" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="F15" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="G15" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6856,,O,N,," xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="H15" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="N15" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313371,,O,N,," xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="O15" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313371,,O,N" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="R15" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="S15" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="T15" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="Z15" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="C16" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,6857" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="E16" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="F16" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="G16" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,6857,,O,N,," xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="H16" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="N16" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:313373,,O,N,," xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="O16" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:313373,,O,N" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="R16" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="S16" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="T16" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="Z16" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="C17" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,7873" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="E17" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="F17" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="G17" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,7873,,O,N,," xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="H17" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="N17" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294785,,O,N,," xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="O17" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294785,,O,N" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="R17" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="S17" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="T17" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="Z17" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="C18" r:id="rId177" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,7874" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="E18" r:id="rId178" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="F18" r:id="rId179" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="G18" r:id="rId180" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,7874,,O,N,," xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="H18" r:id="rId181" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="N18" r:id="rId182" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294787,,O,N,," xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="O18" r:id="rId183" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294787,,O,N" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="R18" r:id="rId184" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="S18" r:id="rId185" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="T18" r:id="rId186" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="Z18" r:id="rId187" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="C19" r:id="rId188" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,8811" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="E19" r:id="rId189" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="F19" r:id="rId190" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="G19" r:id="rId191" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,8811,,O,N,," xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="H19" r:id="rId192" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="N19" r:id="rId193" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:292721,,O,N,," xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="O19" r:id="rId194" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:292721,,O,N" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="R19" r:id="rId195" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="S19" r:id="rId196" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="T19" r:id="rId197" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="Z19" r:id="rId198" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="C20" r:id="rId199" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,9618" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="E20" r:id="rId200" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="F20" r:id="rId201" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="G20" r:id="rId202" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,9618,,O,N,," xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="H20" r:id="rId203" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="N20" r:id="rId204" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:292695,,O,N,," xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="O20" r:id="rId205" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:292695,,O,N" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="R20" r:id="rId206" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="S20" r:id="rId207" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="T20" r:id="rId208" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="Z20" r:id="rId209" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="C21" r:id="rId210" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,10791" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="E21" r:id="rId211" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="F21" r:id="rId212" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="G21" r:id="rId213" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10791,,O,N,," xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="H21" r:id="rId214" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="N21" r:id="rId215" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:295155,,O,N,," xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="O21" r:id="rId216" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:295155,,O,N" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="R21" r:id="rId217" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="S21" r:id="rId218" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="T21" r:id="rId219" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="Z21" r:id="rId220" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="C22" r:id="rId221" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,10998" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="E22" r:id="rId222" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="F22" r:id="rId223" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="G22" r:id="rId224" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10998,,O,N,," xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="H22" r:id="rId225" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="N22" r:id="rId226" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:285509,,O,N,," xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="O22" r:id="rId227" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:285509,,O,N" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="R22" r:id="rId228" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="S22" r:id="rId229" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="T22" r:id="rId230" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="Z22" r:id="rId231" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="C23" r:id="rId232" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11011" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="E23" r:id="rId233" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="F23" r:id="rId234" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="G23" r:id="rId235" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11011,,O,N,," xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="H23" r:id="rId236" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="N23" r:id="rId237" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:287043,,O,N,," xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="O23" r:id="rId238" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:287043,,O,N" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="R23" r:id="rId239" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="S23" r:id="rId240" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="T23" r:id="rId241" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="Z23" r:id="rId242" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="C24" r:id="rId243" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11429" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="E24" r:id="rId244" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="F24" r:id="rId245" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="G24" r:id="rId246" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11429,,O,N,," xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="H24" r:id="rId247" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="N24" r:id="rId248" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:286947,,O,N,," xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="O24" r:id="rId249" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:286947,,O,N" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="R24" r:id="rId250" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="S24" r:id="rId251" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="T24" r:id="rId252" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="Z24" r:id="rId253" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="C25" r:id="rId254" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11981" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="E25" r:id="rId255" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="F25" r:id="rId256" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="G25" r:id="rId257" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11981,,O,N,," xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="H25" r:id="rId258" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="N25" r:id="rId259" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294537,,O,N,," xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="O25" r:id="rId260" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294537,,O,N" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="R25" r:id="rId261" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="S25" r:id="rId262" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="T25" r:id="rId263" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="Z25" r:id="rId264" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="C26" r:id="rId265" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,11982" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="E26" r:id="rId266" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="F26" r:id="rId267" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="G26" r:id="rId268" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11982,,O,N,," xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="H26" r:id="rId269" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="N26" r:id="rId270" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:295269,,O,N,," xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="O26" r:id="rId271" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:295269,,O,N" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="R26" r:id="rId272" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="S26" r:id="rId273" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="T26" r:id="rId274" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="Z26" r:id="rId275" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="B27" r:id="rId276" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,13578" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="D27" r:id="rId277" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="E27" r:id="rId278" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="F27" r:id="rId279" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,13578,,O,N,," xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="G27" r:id="rId280" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="M27" r:id="rId281" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278503,,O,N,," xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="N27" r:id="rId282" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278503,,O,N" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="Q27" r:id="rId283" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="R27" r:id="rId284" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="S27" r:id="rId285" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="Y27" r:id="rId286" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="C28" r:id="rId287" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14126" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="E28" r:id="rId288" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="F28" r:id="rId289" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="G28" r:id="rId290" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14126,,O,N,," xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="H28" r:id="rId291" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="N28" r:id="rId292" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280027,,O,N,," xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="O28" r:id="rId293" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280027,,O,N" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="R28" r:id="rId294" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="S28" r:id="rId295" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="T28" r:id="rId296" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="Z28" r:id="rId297" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="C29" r:id="rId298" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14170" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="E29" r:id="rId299" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="F29" r:id="rId300" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="G29" r:id="rId301" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14170,,O,N,," xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="H29" r:id="rId302" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="N29" r:id="rId303" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:294705,,O,N,," xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="O29" r:id="rId304" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:294705,,O,N" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="R29" r:id="rId305" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="S29" r:id="rId306" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="T29" r:id="rId307" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="Z29" r:id="rId308" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="C30" r:id="rId309" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14366" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="E30" r:id="rId310" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="F30" r:id="rId311" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="G30" r:id="rId312" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14366,,O,N,," xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="H30" r:id="rId313" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="N30" r:id="rId314" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:279283,,O,N,," xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="O30" r:id="rId315" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:279283,,O,N" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="R30" r:id="rId316" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="S30" r:id="rId317" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="T30" r:id="rId318" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="Z30" r:id="rId319" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="C31" r:id="rId320" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14367" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="E31" r:id="rId321" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="F31" r:id="rId322" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="G31" r:id="rId323" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14367,,O,N,," xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="H31" r:id="rId324" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="N31" r:id="rId325" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280001,,O,N,," xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="O31" r:id="rId326" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280001,,O,N" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="R31" r:id="rId327" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="S31" r:id="rId328" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="T31" r:id="rId329" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="Z31" r:id="rId330" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="C32" r:id="rId331" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14368" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="E32" r:id="rId332" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="F32" r:id="rId333" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="G32" r:id="rId334" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14368,,O,N,," xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="H32" r:id="rId335" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="N32" r:id="rId336" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280003,,O,N,," xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="O32" r:id="rId337" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280003,,O,N" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="R32" r:id="rId338" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="S32" r:id="rId339" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="T32" r:id="rId340" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="Z32" r:id="rId341" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="C33" r:id="rId342" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14452" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="E33" r:id="rId343" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="F33" r:id="rId344" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="G33" r:id="rId345" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14452,,O,N,," xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="H33" r:id="rId346" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="N33" r:id="rId347" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:277841,,O,N,," xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="O33" r:id="rId348" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:277841,,O,N" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="R33" r:id="rId349" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="S33" r:id="rId350" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="T33" r:id="rId351" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="Z33" r:id="rId352" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="C34" r:id="rId353" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2020,14600" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="E34" r:id="rId354" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="F34" r:id="rId355" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="G34" r:id="rId356" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,14600,,O,N,," xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="H34" r:id="rId357" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="N34" r:id="rId358" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:277003,,O,N,," xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="O34" r:id="rId359" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:277003,,O,N" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="R34" r:id="rId360" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="S34" r:id="rId361" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="T34" r:id="rId362" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="Z34" r:id="rId363" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Z18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +7648,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -6364,7 +7679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -6407,7 +7722,7 @@
       <c r="N2" s="8">
         <v>11915.1</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="25">
         <v>11915.1</v>
       </c>
       <c r="P2" s="9">
@@ -6444,7 +7759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -6487,7 +7802,7 @@
       <c r="N3" s="14">
         <v>4482.26</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="24">
         <v>4482.26</v>
       </c>
       <c r="P3" s="15">
@@ -6524,7 +7839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -6567,7 +7882,7 @@
       <c r="N4" s="8">
         <v>4041.04</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="25">
         <v>4041.04</v>
       </c>
       <c r="P4" s="9">
@@ -6604,7 +7919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -6647,7 +7962,7 @@
       <c r="N5" s="14">
         <v>6452.22</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="24">
         <v>6452.22</v>
       </c>
       <c r="P5" s="15">
@@ -6684,7 +7999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -6727,7 +8042,7 @@
       <c r="N6" s="14">
         <v>5153.75</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="24">
         <v>5153.75</v>
       </c>
       <c r="P6" s="15">
@@ -6764,7 +8079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -6807,7 +8122,7 @@
       <c r="N7" s="17">
         <v>0</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="25">
         <v>0</v>
       </c>
       <c r="P7" s="21">
@@ -6844,7 +8159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6887,7 +8202,7 @@
       <c r="N8" s="14">
         <v>1033.2</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="24">
         <v>1033.2</v>
       </c>
       <c r="P8" s="15">
@@ -6924,7 +8239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -6967,7 +8282,7 @@
       <c r="N9" s="14">
         <v>3261.6</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="24">
         <v>3261.6</v>
       </c>
       <c r="P9" s="15">
@@ -7004,7 +8319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -7047,7 +8362,7 @@
       <c r="N10" s="17">
         <v>963.24</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="25">
         <v>963.24</v>
       </c>
       <c r="P10" s="9">
@@ -7084,7 +8399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -7127,7 +8442,7 @@
       <c r="N11" s="19">
         <v>559.44000000000005</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="24">
         <v>559.44000000000005</v>
       </c>
       <c r="P11" s="15">
@@ -7164,7 +8479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -7207,7 +8522,7 @@
       <c r="N12" s="14">
         <v>195000</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="24">
         <v>195000</v>
       </c>
       <c r="P12" s="15">
@@ -7244,7 +8559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -7287,7 +8602,7 @@
       <c r="N13" s="8">
         <v>1862</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="25">
         <v>1862</v>
       </c>
       <c r="P13" s="9">
@@ -7324,7 +8639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -7367,7 +8682,7 @@
       <c r="N14" s="17">
         <v>132</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="25">
         <v>132</v>
       </c>
       <c r="P14" s="9">
@@ -7404,7 +8719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -7447,7 +8762,7 @@
       <c r="N15" s="19">
         <v>208.8</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="24">
         <v>0</v>
       </c>
       <c r="P15" s="15">
@@ -7484,7 +8799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -7527,7 +8842,7 @@
       <c r="N16" s="14">
         <v>23235.599999999999</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="24">
         <v>0</v>
       </c>
       <c r="P16" s="15">
@@ -7564,7 +8879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -7607,7 +8922,7 @@
       <c r="N17" s="17">
         <v>0</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="25">
         <v>0</v>
       </c>
       <c r="P17" s="9">
@@ -7644,7 +8959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -7687,7 +9002,7 @@
       <c r="N18" s="19">
         <v>0</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="24">
         <v>0</v>
       </c>
       <c r="P18" s="15">
@@ -7724,208 +9039,956 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O19" s="23">
+        <f>SUM(O2:O18)</f>
+        <v>234855.85</v>
+      </c>
+      <c r="P19" s="23">
+        <v>2234855.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="29">
+        <v>195000</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E21" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E21:Q25"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1252"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G2" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1252,,O,N,,"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N2" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:281299,,O,N,,"/>
-    <hyperlink ref="O2" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:281299,,O,N"/>
-    <hyperlink ref="R2" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S2" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T2" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z2" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C3" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1254"/>
-    <hyperlink ref="E3" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F3" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G3" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1254,,O,N,,"/>
-    <hyperlink ref="H3" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N3" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:281303,,O,N,,"/>
-    <hyperlink ref="O3" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:281303,,O,N"/>
-    <hyperlink ref="R3" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S3" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T3" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z3" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C4" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1256"/>
-    <hyperlink ref="E4" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F4" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G4" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1256,,O,N,,"/>
-    <hyperlink ref="H4" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N4" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:282043,,O,N,,"/>
-    <hyperlink ref="O4" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:282043,,O,N"/>
-    <hyperlink ref="R4" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S4" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T4" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z4" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C5" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1799"/>
-    <hyperlink ref="E5" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F5" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G5" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1799,,O,N,,"/>
-    <hyperlink ref="H5" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N5" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278101,,O,N,,"/>
-    <hyperlink ref="O5" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278101,,O,N"/>
-    <hyperlink ref="R5" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S5" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T5" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z5" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C6" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1801"/>
-    <hyperlink ref="E6" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F6" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G6" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1801,,O,N,,"/>
-    <hyperlink ref="H6" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N6" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278105,,O,N,,"/>
-    <hyperlink ref="O6" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278105,,O,N"/>
-    <hyperlink ref="R6" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S6" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T6" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z6" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C7" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2041"/>
-    <hyperlink ref="E7" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F7" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G7" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2041,,O,N,,"/>
-    <hyperlink ref="H7" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N7" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:276515,,O,N,,"/>
-    <hyperlink ref="O7" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:276515,,O,N"/>
-    <hyperlink ref="R7" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S7" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T7" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z7" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C8" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2199"/>
-    <hyperlink ref="E8" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F8" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G8" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2199,,O,N,,"/>
-    <hyperlink ref="H8" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N8" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280659,,O,N,,"/>
-    <hyperlink ref="O8" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280659,,O,N"/>
-    <hyperlink ref="R8" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S8" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T8" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z8" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C9" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2444"/>
-    <hyperlink ref="E9" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F9" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G9" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2444,,O,N,,"/>
-    <hyperlink ref="H9" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N9" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:279871,,O,N,,"/>
-    <hyperlink ref="O9" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:279871,,O,N"/>
-    <hyperlink ref="R9" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S9" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T9" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z9" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C10" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,3583"/>
-    <hyperlink ref="E10" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F10" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G10" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3583,,O,N,,"/>
-    <hyperlink ref="H10" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N10" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:284691,,O,N,,"/>
-    <hyperlink ref="O10" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:284691,,O,N"/>
-    <hyperlink ref="R10" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S10" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T10" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z10" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C11" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,3584"/>
-    <hyperlink ref="E11" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F11" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G11" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3584,,O,N,,"/>
-    <hyperlink ref="H11" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N11" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:284693,,O,N,,"/>
-    <hyperlink ref="O11" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:284693,,O,N"/>
-    <hyperlink ref="R11" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S11" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T11" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z11" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C12" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,4108"/>
-    <hyperlink ref="E12" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F12" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G12" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4108,,O,N,,"/>
-    <hyperlink ref="H12" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N12" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280725,,O,N,,"/>
-    <hyperlink ref="O12" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280725,,O,N"/>
-    <hyperlink ref="R12" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S12" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T12" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z12" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C13" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,4799"/>
-    <hyperlink ref="E13" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F13" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G13" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4799,,O,N,,"/>
-    <hyperlink ref="H13" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N13" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:304951,,O,N,,"/>
-    <hyperlink ref="O13" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:304951,,O,N"/>
-    <hyperlink ref="R13" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S13" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T13" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z13" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C14" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,10052"/>
-    <hyperlink ref="E14" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F14" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G14" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10052,,O,N,,"/>
-    <hyperlink ref="H14" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N14" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:320713,,O,N,,"/>
-    <hyperlink ref="O14" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:320713,,O,N"/>
-    <hyperlink ref="R14" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S14" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T14" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z14" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C15" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,11261"/>
-    <hyperlink ref="E15" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F15" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G15" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11261,,O,N,,"/>
-    <hyperlink ref="H15" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N15" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:325315,,O,N,,"/>
-    <hyperlink ref="O15" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:325315,,O,N"/>
-    <hyperlink ref="R15" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S15" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T15" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z15" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C16" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,11876"/>
-    <hyperlink ref="E16" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F16" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G16" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11876,,O,N,,"/>
-    <hyperlink ref="H16" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N16" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:322547,,O,N,,"/>
-    <hyperlink ref="O16" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:322547,,O,N"/>
-    <hyperlink ref="R16" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S16" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T16" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z16" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C17" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,12042"/>
-    <hyperlink ref="E17" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F17" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G17" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12042,,O,N,,"/>
-    <hyperlink ref="H17" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N17" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:323307,,O,N,,"/>
-    <hyperlink ref="O17" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:323307,,O,N"/>
-    <hyperlink ref="R17" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S17" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T17" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z17" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
-    <hyperlink ref="C18" r:id="rId177" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,12297"/>
-    <hyperlink ref="E18" r:id="rId178" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,,"/>
-    <hyperlink ref="F18" r:id="rId179" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,,"/>
-    <hyperlink ref="G18" r:id="rId180" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12297,,O,N,,"/>
-    <hyperlink ref="H18" r:id="rId181" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:"/>
-    <hyperlink ref="N18" r:id="rId182" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:321831,,O,N,,"/>
-    <hyperlink ref="O18" r:id="rId183" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:321831,,O,N"/>
-    <hyperlink ref="R18" r:id="rId184" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,,"/>
-    <hyperlink ref="S18" r:id="rId185" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:"/>
-    <hyperlink ref="T18" r:id="rId186" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:"/>
-    <hyperlink ref="Z18" r:id="rId187" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1252" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1252,,O,N,," xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="N2" r:id="rId6" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:281299,,O,N,," xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="O2" r:id="rId7" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:281299,,O,N" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="R2" r:id="rId8" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="S2" r:id="rId9" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="T2" r:id="rId10" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="Z2" r:id="rId11" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C3" r:id="rId12" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1254" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E3" r:id="rId13" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId14" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="G3" r:id="rId15" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1254,,O,N,," xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="H3" r:id="rId16" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="N3" r:id="rId17" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:281303,,O,N,," xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="O3" r:id="rId18" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:281303,,O,N" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="R3" r:id="rId19" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="S3" r:id="rId20" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="T3" r:id="rId21" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="Z3" r:id="rId22" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C4" r:id="rId23" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1256" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="E4" r:id="rId24" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="F4" r:id="rId25" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G4" r:id="rId26" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1256,,O,N,," xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="H4" r:id="rId27" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="N4" r:id="rId28" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:282043,,O,N,," xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="O4" r:id="rId29" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:282043,,O,N" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="R4" r:id="rId30" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="S4" r:id="rId31" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="T4" r:id="rId32" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="Z4" r:id="rId33" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C5" r:id="rId34" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1799" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="E5" r:id="rId35" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="F5" r:id="rId36" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="G5" r:id="rId37" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1799,,O,N,," xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="H5" r:id="rId38" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="N5" r:id="rId39" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278101,,O,N,," xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="O5" r:id="rId40" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278101,,O,N" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="R5" r:id="rId41" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="S5" r:id="rId42" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="T5" r:id="rId43" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="Z5" r:id="rId44" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C6" r:id="rId45" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,1801" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="E6" r:id="rId46" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="F6" r:id="rId47" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="G6" r:id="rId48" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,1801,,O,N,," xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="H6" r:id="rId49" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="N6" r:id="rId50" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:278105,,O,N,," xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="O6" r:id="rId51" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:278105,,O,N" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="R6" r:id="rId52" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="S6" r:id="rId53" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="T6" r:id="rId54" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="Z6" r:id="rId55" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="C7" r:id="rId56" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2041" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="E7" r:id="rId57" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="F7" r:id="rId58" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="G7" r:id="rId59" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2041,,O,N,," xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="H7" r:id="rId60" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="N7" r:id="rId61" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:276515,,O,N,," xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="O7" r:id="rId62" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:276515,,O,N" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="R7" r:id="rId63" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="S7" r:id="rId64" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="T7" r:id="rId65" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="Z7" r:id="rId66" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="C8" r:id="rId67" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2199" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="E8" r:id="rId68" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="F8" r:id="rId69" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="G8" r:id="rId70" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2199,,O,N,," xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="H8" r:id="rId71" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="N8" r:id="rId72" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280659,,O,N,," xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="O8" r:id="rId73" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280659,,O,N" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="R8" r:id="rId74" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="S8" r:id="rId75" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="T8" r:id="rId76" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="Z8" r:id="rId77" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="C9" r:id="rId78" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,2444" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="E9" r:id="rId79" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="F9" r:id="rId80" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="G9" r:id="rId81" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,2444,,O,N,," xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="H9" r:id="rId82" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="N9" r:id="rId83" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:279871,,O,N,," xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="O9" r:id="rId84" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:279871,,O,N" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="R9" r:id="rId85" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="S9" r:id="rId86" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="T9" r:id="rId87" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="Z9" r:id="rId88" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="C10" r:id="rId89" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,3583" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="E10" r:id="rId90" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="F10" r:id="rId91" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="G10" r:id="rId92" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3583,,O,N,," xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="H10" r:id="rId93" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="N10" r:id="rId94" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:284691,,O,N,," xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="O10" r:id="rId95" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:284691,,O,N" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="R10" r:id="rId96" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="S10" r:id="rId97" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="T10" r:id="rId98" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="Z10" r:id="rId99" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="C11" r:id="rId100" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,3584" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="E11" r:id="rId101" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="F11" r:id="rId102" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="G11" r:id="rId103" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,3584,,O,N,," xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="H11" r:id="rId104" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="N11" r:id="rId105" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:284693,,O,N,," xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="O11" r:id="rId106" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:284693,,O,N" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="R11" r:id="rId107" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="S11" r:id="rId108" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="T11" r:id="rId109" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="Z11" r:id="rId110" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="C12" r:id="rId111" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,4108" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="E12" r:id="rId112" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="F12" r:id="rId113" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="G12" r:id="rId114" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4108,,O,N,," xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="H12" r:id="rId115" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="N12" r:id="rId116" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:280725,,O,N,," xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="O12" r:id="rId117" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:280725,,O,N" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="R12" r:id="rId118" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="S12" r:id="rId119" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="T12" r:id="rId120" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="Z12" r:id="rId121" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="C13" r:id="rId122" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,4799" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="E13" r:id="rId123" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="F13" r:id="rId124" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="G13" r:id="rId125" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,4799,,O,N,," xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="H13" r:id="rId126" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="N13" r:id="rId127" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:304951,,O,N,," xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="O13" r:id="rId128" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:304951,,O,N" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="R13" r:id="rId129" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="S13" r:id="rId130" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="T13" r:id="rId131" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="Z13" r:id="rId132" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="C14" r:id="rId133" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,10052" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="E14" r:id="rId134" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="F14" r:id="rId135" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="G14" r:id="rId136" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,10052,,O,N,," xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="H14" r:id="rId137" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="N14" r:id="rId138" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:320713,,O,N,," xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="O14" r:id="rId139" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:320713,,O,N" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="R14" r:id="rId140" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="S14" r:id="rId141" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="T14" r:id="rId142" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="Z14" r:id="rId143" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="C15" r:id="rId144" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,11261" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="E15" r:id="rId145" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="F15" r:id="rId146" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="G15" r:id="rId147" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11261,,O,N,," xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="H15" r:id="rId148" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="N15" r:id="rId149" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:325315,,O,N,," xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="O15" r:id="rId150" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:325315,,O,N" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="R15" r:id="rId151" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="S15" r:id="rId152" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="T15" r:id="rId153" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="Z15" r:id="rId154" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="C16" r:id="rId155" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,11876" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="E16" r:id="rId156" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="F16" r:id="rId157" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="G16" r:id="rId158" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,11876,,O,N,," xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="H16" r:id="rId159" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="N16" r:id="rId160" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:322547,,O,N,," xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="O16" r:id="rId161" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:322547,,O,N" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="R16" r:id="rId162" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="S16" r:id="rId163" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="T16" r:id="rId164" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="Z16" r:id="rId165" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="C17" r:id="rId166" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,12042" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="E17" r:id="rId167" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="F17" r:id="rId168" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="G17" r:id="rId169" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12042,,O,N,," xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="H17" r:id="rId170" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="N17" r:id="rId171" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:323307,,O,N,," xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="O17" r:id="rId172" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:323307,,O,N" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="R17" r:id="rId173" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="S17" r:id="rId174" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="T17" r:id="rId175" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="Z17" r:id="rId176" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="C18" r:id="rId177" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR:::P7_ANO_EMPENHO_IMPRESSAO,P7_NUM_EMPENHO:2021,12297" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="E18" r:id="rId178" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,ATA,,O,N,," xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="F18" r:id="rId179" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONTRATO,P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_TIPO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:-,,2,CONTRATO,,O,N,," xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="G18" r:id="rId180" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_CONT_ID,P7_MOSTRA_ITEM_ANEXO,P7_ANO_EMPENHO,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:,1,12297,,O,N,," xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="H18" r:id="rId181" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::IMPRIMIR_AUTORIZACAO:::P7_AUTO_ID:" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="N18" r:id="rId182" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_LIQUIDACOES,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX,P7_COD_APLICACAO_COVID_AUX_2,P7_COD_APLICACAO_COVID_AUX_3:321831,,O,N,," xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="O18" r:id="rId183" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_EMPENHO_MODAL_PAGAMENTOS,P7_COD_APLICACAO_COVID_AUX,P7_TIPO_DESPESA_AUX,P7_SUBMIT_AUX:321831,,O,N" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="R18" r:id="rId184" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:23::PESQUISAR:::P23_PARAMETRO,P23_PROCESSO,P23_PRCO_ID,P23_MOLI_ID:2,%2F,," xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
+    <hyperlink ref="S18" r:id="rId185" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7:::::P7_PRCO_ID:" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="T18" r:id="rId186" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ITENS_EMPENHO:::P7_SOEM_ID:" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="Z18" r:id="rId187" display="https://taubate.meumunicipio.digital/ords/taubate/f?p=839:7::ADICIONAIS:::P7_SOEM_ID,P7_COD_MODALIDADE:,6" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
   </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId188"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="d">
+        <v>2022-01-03</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <v>608.1</v>
+      </c>
+      <c r="N2">
+        <v>608.1</v>
+      </c>
+      <c r="O2">
+        <v>608.1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="1" t="d">
+        <v>2022-06-23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2351.8200000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2351.81</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2351.81</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T3" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3">
+        <v>22557</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="1" t="d">
+        <v>2022-07-04</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="N4">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="O4">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4">
+        <v>22647</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="1" t="d">
+        <v>2022-08-01</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>350.1</v>
+      </c>
+      <c r="N5">
+        <v>330.8</v>
+      </c>
+      <c r="O5">
+        <v>330.8</v>
+      </c>
+      <c r="P5">
+        <v>19.3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" t="s">
+        <v>176</v>
+      </c>
+      <c r="U5">
+        <v>23136</v>
+      </c>
+      <c r="V5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="1" t="d">
+        <v>2022-10-26</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="N6">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="O6">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U6">
+        <v>24157</v>
+      </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="1" t="d">
+        <v>2022-10-27</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>462.28</v>
+      </c>
+      <c r="N7">
+        <v>462.28</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" t="s">
+        <v>176</v>
+      </c>
+      <c r="U7">
+        <v>24289</v>
+      </c>
+      <c r="V7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="1" t="d">
+        <v>2022-10-27</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>662.4</v>
+      </c>
+      <c r="N8">
+        <v>662.4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" t="s">
+        <v>175</v>
+      </c>
+      <c r="T8" t="s">
+        <v>176</v>
+      </c>
+      <c r="U8">
+        <v>24289</v>
+      </c>
+      <c r="V8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="1" t="d">
+        <v>2022-09-02</v>
+      </c>
+      <c r="J9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6356.4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6356.4</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6356.4</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" t="s">
+        <v>175</v>
+      </c>
+      <c r="T9" t="s">
+        <v>176</v>
+      </c>
+      <c r="U9">
+        <v>23580</v>
+      </c>
+      <c r="V9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="1" t="d">
+        <v>2022-10-19</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3700</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>24173</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O11" s="23">
+        <f>SUM(O2:O10)</f>
+        <v>10726.61</v>
+      </c>
+      <c r="P11" s="23">
+        <v>10726.61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428BE348-BD54-4D09-9EFD-48FCA31CA29F}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="27">
+        <v>23630.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="28">
+        <v>95304.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="23">
+        <v>234855.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="23">
+        <v>10726.61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>